--- a/nci-jupyter-app_v3.3.2/Test_Datasets.xlsx
+++ b/nci-jupyter-app_v3.3.2/Test_Datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebecca/Desktop/NCI-Diagnostic-Toolkit/nci-jupyter-app_v3.3.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28E25C-DD9B-AF46-81CA-022D5CEF6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5B65B8-64B3-FD48-B4E9-ECCB1563903F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="2160" windowWidth="22900" windowHeight="17500" activeTab="1" xr2:uid="{A16C0D8F-D136-CD4A-B7D1-F357B7F6D64F}"/>
+    <workbookView xWindow="1380" yWindow="2140" windowWidth="22900" windowHeight="17500" activeTab="3" xr2:uid="{A16C0D8F-D136-CD4A-B7D1-F357B7F6D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="pi-pi" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>OMe</t>
   </si>
@@ -109,49 +109,52 @@
     <t>Et</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ortho</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>adamantyl</t>
+  </si>
+  <si>
+    <t>Me pyrazole</t>
+  </si>
+  <si>
+    <t>Otf</t>
+  </si>
+  <si>
+    <t>CO2Et</t>
+  </si>
+  <si>
+    <t>Arene Fragment or Substituent</t>
+  </si>
+  <si>
+    <t>Experimental Data</t>
+  </si>
+  <si>
+    <t>C6F5H</t>
+  </si>
+  <si>
+    <t>1,3diNO2</t>
+  </si>
+  <si>
+    <t>3,4,5triF</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
     <t>Me</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>ortho</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>adamantyl</t>
-  </si>
-  <si>
-    <t>triF</t>
-  </si>
-  <si>
-    <t>Me pyrazole</t>
-  </si>
-  <si>
-    <t>Otf</t>
-  </si>
-  <si>
-    <t>CO2Et</t>
-  </si>
-  <si>
-    <t>Arene Fragment or Substituent</t>
-  </si>
-  <si>
-    <t>Experimental Data</t>
-  </si>
-  <si>
-    <t>C6F5H</t>
-  </si>
-  <si>
-    <t>1,3diNO2</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -293,7 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +624,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -717,7 +719,7 @@
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>1.3477747844206607</v>
       </c>
       <c r="E9" s="8"/>
@@ -727,7 +729,7 @@
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>0.80243070511959902</v>
       </c>
       <c r="E10" s="8"/>
@@ -737,7 +739,7 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>1.0660826146167397</v>
       </c>
       <c r="E11" s="8"/>
@@ -745,9 +747,9 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14">
+        <v>27</v>
+      </c>
+      <c r="B12">
         <v>0.98328535138378104</v>
       </c>
       <c r="E12" s="8"/>
@@ -757,7 +759,7 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>1.0200228233127393</v>
       </c>
     </row>
@@ -765,15 +767,15 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14">
         <v>1.0990362651913819</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="14">
+        <v>30</v>
+      </c>
+      <c r="B15">
         <v>0.98087263571406547</v>
       </c>
       <c r="E15" s="8"/>
@@ -781,9 +783,9 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="14">
+        <v>30</v>
+      </c>
+      <c r="B16">
         <v>1.008874832336035</v>
       </c>
       <c r="E16" s="8"/>
@@ -791,25 +793,25 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="14">
+        <v>31</v>
+      </c>
+      <c r="B17">
         <v>1.0774626905931477</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="14">
+        <v>31</v>
+      </c>
+      <c r="B18">
         <v>1.0007442122145207</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="14">
+        <v>31</v>
+      </c>
+      <c r="B19">
         <v>1.3258083931567846</v>
       </c>
     </row>
@@ -817,13 +819,13 @@
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20">
         <v>0.91890539465686083</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0.68619468644031623</v>
@@ -839,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D18EE-E687-8A48-B9F4-70DED63DAF71}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,10 +853,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -921,7 +923,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>-7.8</v>
@@ -935,7 +937,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>-8.5</v>
@@ -1012,10 +1014,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1161,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94617864-D777-8649-815E-130C9B571605}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,10 +1175,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1242,13 +1244,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8">
         <v>1.100975533</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
@@ -1259,26 +1261,26 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8">
         <v>1.2748422850000001</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>1.1315890660000001</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
@@ -1295,33 +1297,33 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="8">
         <v>0.94547721399999995</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8">
         <v>0.88075286500000005</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8">
         <v>0.92313342700000001</v>
@@ -1331,7 +1333,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8">
         <v>1.472456991</v>
@@ -1341,7 +1343,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8">
         <v>0.61386489799999999</v>

--- a/nci-jupyter-app_v3.3.2/Test_Datasets.xlsx
+++ b/nci-jupyter-app_v3.3.2/Test_Datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebecca/Desktop/NCI-Diagnostic-Toolkit/nci-jupyter-app_v3.3.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebecca/Desktop/Coding_Projects/NCI-Diagnostic-Toolkit/nci-jupyter-app_v3.3.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5B65B8-64B3-FD48-B4E9-ECCB1563903F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434ED849-F9CF-6843-B701-225EA01FE11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2140" windowWidth="22900" windowHeight="17500" activeTab="3" xr2:uid="{A16C0D8F-D136-CD4A-B7D1-F357B7F6D64F}"/>
+    <workbookView xWindow="11440" yWindow="760" windowWidth="15220" windowHeight="18880" xr2:uid="{A16C0D8F-D136-CD4A-B7D1-F357B7F6D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="pi-pi" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>OMe</t>
   </si>
@@ -109,15 +109,6 @@
     <t>Et</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>ortho</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -127,12 +118,6 @@
     <t>adamantyl</t>
   </si>
   <si>
-    <t>Me pyrazole</t>
-  </si>
-  <si>
-    <t>Otf</t>
-  </si>
-  <si>
     <t>CO2Et</t>
   </si>
   <si>
@@ -155,13 +140,19 @@
   </si>
   <si>
     <t>Me</t>
+  </si>
+  <si>
+    <t>Me_pyrazole</t>
+  </si>
+  <si>
+    <t>OTf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,13 +203,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,7 +279,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,24 +593,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C87AF8-52AE-3540-A2CA-299CBBD41F7D}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -716,118 +699,94 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.3477747844206607</v>
+        <v>1.0660826146167397</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>0.80243070511959902</v>
+        <v>0.98328535138378104</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1.0660826146167397</v>
+        <v>1.0200228233127393</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0.98328535138378104</v>
+        <v>1.0990362651913819</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>1.0200228233127393</v>
+        <v>0.98087263571406547</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>1.0990362651913819</v>
+        <v>1.008874832336035</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>0.98087263571406547</v>
+        <v>1.0774626905931477</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>1.008874832336035</v>
+        <v>1.0007442122145207</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1.0774626905931477</v>
+        <v>0.91890539465686083</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>1.0007442122145207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>1.3258083931567846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0.91890539465686083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
         <v>0.68619468644031623</v>
       </c>
     </row>
@@ -853,10 +812,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -923,7 +882,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>-7.8</v>
@@ -937,12 +896,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>-8.5</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="12"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
@@ -953,7 +912,7 @@
       <c r="B9">
         <v>-6.5</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
@@ -963,7 +922,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
@@ -1014,10 +973,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1163,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94617864-D777-8649-815E-130C9B571605}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,10 +1134,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1244,13 +1203,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8">
         <v>1.100975533</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
@@ -1261,26 +1217,20 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8">
         <v>1.2748422850000001</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>1.1315890660000001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
@@ -1297,33 +1247,27 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8">
         <v>0.94547721399999995</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8">
         <v>0.88075286500000005</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8">
         <v>0.92313342700000001</v>
@@ -1333,7 +1277,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8">
         <v>1.472456991</v>
@@ -1343,7 +1287,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B15" s="8">
         <v>0.61386489799999999</v>
